--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15830" windowHeight="9200"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>dayExp</t>
+  </si>
+  <si>
+    <t>foeExp</t>
+  </si>
+  <si>
+    <t>totalFoeExp</t>
   </si>
   <si>
     <t>int</t>
@@ -965,15 +971,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="7" max="7" width="12.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,25 +998,37 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1023,8 +1044,15 @@
       <c r="E4">
         <v>50</v>
       </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f>D4*F4</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1040,8 +1068,15 @@
       <c r="E5">
         <v>100</v>
       </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f>D5*F5</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1056,6 +1091,13 @@
       </c>
       <c r="E6">
         <v>0</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f>D6*F6</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15830" windowHeight="9200"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
@@ -971,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="7" max="7" width="12.2727272727273" customWidth="1"/>
   </cols>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f>D4*F4</f>
+        <f t="shared" ref="G4:G8" si="0">D4*F4</f>
         <v>16</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <f>D5*F5</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -1096,7 +1096,55 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <f>D6*F6</f>
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1002</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1011</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -974,7 +974,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1063,17 +1063,17 @@
         <v>1002</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1087,17 +1087,17 @@
         <v>1011</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14030" windowHeight="12610"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
@@ -971,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="7" max="7" width="12.2727272727273" customWidth="1"/>
   </cols>
@@ -1135,7 +1135,7 @@
         <v>1011</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1145,7 +1145,31 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1021</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <f>D9*F9</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14030" windowHeight="12610"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
@@ -971,10 +971,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G8" si="0">D4*F4</f>
+        <f t="shared" ref="G4:G10" si="0">D4*F4</f>
         <v>16</v>
       </c>
     </row>
@@ -1168,8 +1168,32 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <f>D9*F9</f>
+        <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1021</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -37,7 +37,34 @@
     <t>totalFoeExp</t>
   </si>
   <si>
+    <t>Remark</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>HR With Resume</t>
+  </si>
+  <si>
+    <t>Group HR</t>
+  </si>
+  <si>
+    <t>Interviewer</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>FinalBoss</t>
   </si>
 </sst>
 </file>
@@ -971,18 +998,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="7" max="7" width="12.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,31 +1032,37 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1051,8 +1085,11 @@
         <f t="shared" ref="G4:G10" si="0">D4*F4</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1075,6 +1112,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -1100,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1123,6 +1163,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -1172,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1180,20 +1223,224 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1023</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <f>D11*F11</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1024</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f>D12*F12</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1031</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>100</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <f>D13*F13</f>
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1032</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <f>D14*F14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1041</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <f>D15*F15</f>
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1042</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <f>D16*F16</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1043</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <f>D17*F17</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1099</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <f>D18*F18</f>
+        <v>200</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -998,10 +998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G10" si="0">D4*F4</f>
+        <f t="shared" ref="G4:G18" si="0">D4*F4</f>
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -1262,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="G11">
-        <f>D11*F11</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="G12">
-        <f>D12*F12</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <f>D13*F13</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H13" t="s">
@@ -1337,7 +1337,7 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <f>D14*F14</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>100</v>
       </c>
       <c r="G15">
-        <f>D15*F15</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -1388,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="G16">
-        <f>D16*F16</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1412,34 +1412,58 @@
         <v>30</v>
       </c>
       <c r="G17">
-        <f>D17*F17</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1099</v>
+        <v>1011</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <f>D18*F18</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1099</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>200</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <f>D19*F19</f>
+        <v>200</v>
+      </c>
+      <c r="H19" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -998,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1082,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G18" si="0">D4*F4</f>
+        <f t="shared" ref="G4:G19" si="0">D4*F4</f>
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -1307,11 +1320,11 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1334,37 +1347,34 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
+        <f>D15*F15</f>
         <v>15</v>
       </c>
     </row>
@@ -1373,10 +1383,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1385,11 +1395,11 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>D16*F16</f>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1397,10 +1407,10 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1409,11 +1419,11 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>D17*F17</f>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1421,49 +1431,172 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>1011</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <f>D18*F18</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1099</v>
+        <v>1021</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <f>D19*F19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1041</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <f>D20*F20</f>
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1042</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <f>D21*F21</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1043</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <f>D22*F22</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1011</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <f>D23*F23</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1099</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>200</v>
       </c>
-      <c r="H19" t="s">
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <f>D24*F24</f>
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Assets/Excel/Day.xlsx
+++ b/Assets/Excel/Day.xlsx
@@ -1011,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G19" si="0">D4*F4</f>
+        <f t="shared" ref="G4:G24" si="0">D4*F4</f>
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -1356,61 +1356,64 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <f>D15*F15</f>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <f>D16*F16</f>
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1419,22 +1422,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <f>D17*F17</f>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1011</v>
+        <v>1043</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1443,160 +1446,61 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <f>D18*F18</f>
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <f>D19*F19</f>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1041</v>
+        <v>1099</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G20">
         <f>D20*F20</f>
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>1042</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>35</v>
-      </c>
-      <c r="G21">
-        <f>D21*F21</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>1043</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="G22">
-        <f>D22*F22</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>1011</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <f>D23*F23</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>1099</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>200</v>
-      </c>
-      <c r="F24">
-        <v>200</v>
-      </c>
-      <c r="G24">
-        <f>D24*F24</f>
-        <v>200</v>
-      </c>
-      <c r="H24" t="s">
         <v>16</v>
       </c>
     </row>
